--- a/Project/BuildProto/Excel/UIConfig.xlsx
+++ b/Project/BuildProto/Excel/UIConfig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38569FDA-46CC-4D07-9E76-773AF2144310}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0B5F5-A1DD-4275-AE42-E3FE5769EEBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="10440" windowWidth="19170" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="6825" windowWidth="19170" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UICONFIG" sheetId="1" r:id="rId1"/>
+    <sheet name="UI_Config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id唯一</t>
   </si>
@@ -88,39 +88,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/LobbyWindow/LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNameWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/SetNameWindow/SetNameWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA.UI.LoginWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA.UI.LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA.UI.SetNameWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cacheTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存时间(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LobbyWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/UI/LobbyWindow/LobbyWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetNameWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/UI/SetNameWindow/SetNameWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,14 +507,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C3:C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,7 +532,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -541,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -555,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -572,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -583,13 +591,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -600,13 +608,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>

--- a/Project/BuildProto/Excel/UIConfig.xlsx
+++ b/Project/BuildProto/Excel/UIConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0B5F5-A1DD-4275-AE42-E3FE5769EEBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC381FED-21A8-4E82-937A-0B6A193440B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="6825" windowWidth="19170" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="8220" windowWidth="27975" windowHeight="16155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI_Config" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/UI/LoginWindow/LoginWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,18 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/UI/LobbyWindow/LobbyWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SetNameWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/UI/SetNameWindow/SetNameWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DA.UI.LoginWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +117,18 @@
   </si>
   <si>
     <t>className</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Prefabs/UI/LoginWindow/LoginWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Prefabs/UI/LobbyWindow/LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Prefabs/UI/SetNameWindow/SetNameWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,13 +507,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
@@ -529,10 +529,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -591,13 +591,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
